--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자 기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자 기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3391,14 +3391,6439 @@
           <t>직책</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>20230330</t>
-        </is>
+      <c r="D133" t="n">
+        <v>20230330</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>06시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>삶에 대한 통찰(洞察)이 묻어나는 말씀이다</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>通察</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>洞察: 通察 (X)洞察 (O)</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>13시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>淵深</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>연심: 못 연, 깊을 심, 수준이 높거나 정도가 심하다</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>13시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>前揭</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>전게: 앞 전, 걸 게</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>13시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>朋執</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>붕집: 벗 붕, 잡을 집, 비슷한 또래로서 서로 친하게 사귀는 사람</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>13시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>相値</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>상치: 서로 상, 값 치, 두 가지 일이 공교롭게 마주침</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>13시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>朋執</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>월조</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>붕집: 벗 붕, 잡을 집, 비슷한 또래로서 서로 친하게 사귀는 사람</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>13시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>蹂躪</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>유린: 蹂밟을 유, 躪짓밟을 린, 남의 권리나 인격을 짓밟음</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>遊戱</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>유희: 놀 유, 놀이 희, 즐겁게 놀며 장난함. 또는 그런 행위</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>13시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>蹂躪</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>유린: 蹂밟을 유, 躪짓밟을 린, 남의 권리나 인격을 짓밟음</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>13시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>委棄하다：내버려두다</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>위기: 委棄(맡길 위, 버릴 기)버리고 돌보지 않음 (소유권 양도의 의사표시)</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>13시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>蹂躪</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>유린: 蹂밟을 유, 躪짓밟을 린, 남의 권리나 인격을 짓밟음</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>委棄하다：내버려두다</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>위기: 委棄(맡길 위, 버릴 기)버리고 돌보지 않음 (소유권 양도의 의사표시)</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>妥協的</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>타협적</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>忖度</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>촌탁: 헤아릴 촌, 헤아릴 탁</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>忖度</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>촌탁: 헤아릴 촌, 헤아릴 탁</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>13시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>13시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>忖度</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>촌탁: 헤아릴 촌, 헤아릴 탁</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>13시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>13시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>展望</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>전망</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>13시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>기대</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>13시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>盛裝</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>(이룰 성, 길 장): 사람이나 동식물 따위가 자라서 점점 커짐</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>(성장-성할 성,꾸밀 장): 얼굴과 몸의 꾸밈을 화려하게 함</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>13시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>隘路</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>애로: 좁을 애, 길 로</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>13시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>卑下</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>비하: 낮을 비, 아래 하, 자기 자신을 낮춤</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>宮趾</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>궁지: (집 궁, 발 지), ‘궁궐터’를 다르게 부르는 말</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>暴惡</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>포악: 사나울 포, 악할 악</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>그의 작품에는 다양한 인생 편력(遍歷)이 드러나 있다</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>편력: 遍歷 : 이곳저곳을 널리 돌아다님. 여러 가지 경험을 함</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>14시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>分離</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>분란</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>분리: 서로 나뉘어 떨어지거나 떨어지게함</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>14시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>覇氣</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>패기: 覇 으뜸(두목)패/氣 기운 기, 어떤 어려운 일이라도 해내 려는 굳센 기상이나 정신</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>14시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>얼었던 것이 녹아서 풀림. 또는 그렇게 하게 함</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>해동</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>解凍: 풀 해, 얼 동</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>14시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>蹂躪</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>답사</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>유린: 蹂밟을 유, 躪짓밟을 린, 남의 권리나 인격을 짓밟음</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>14시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>얼었던 것이 녹아서 풀림. 또는 그렇게 하게 함</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>解冬</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>解凍: 풀 해, 얼 동</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>14시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>覇氣</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>패기: 覇 으뜸(두목)패/氣 기운 기, 어떤 어려운 일이라도 해내 려는 굳센 기상이나 정신</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>14시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>闡發</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>천발: 밝힐 천, 필 발, 드러내어 밝힘</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>14시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>狷介</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>견개: 狷 성급할 견/介 낄(낱)개, 굳게 절개를 지키고 구차하게 타협하지 아니함</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>14시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>闡發</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>천발: 밝힐 천, 필 발, 드러내어 밝힘</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>14시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>覇氣</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>패기: 覇 으뜸(두목)패/氣 기운 기, 어떤 어려운 일이라도 해내 려는 굳센 기상이나 정신</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>破天荒(파천황): 이전에 아무도 하지 못한 일을 처음으로 해냄을 이르는 말</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>파천황</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>破天荒(파천황): 이전에 아무도 하지 못한 일을 처음으로 해냄을 이르는 말</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>파천루</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>파천황</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>闡發</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>천발: 밝힐 천, 필 발, 드러내어 밝힘</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>做出</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>주출: 지을 주, 날 출</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>做出</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>주출: 지을 주, 날 출</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>15시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>懈怠하다：게을리 하다</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>해태: 懈怠(게으를 해, 게으를 태)어떤 법률 행위를 해야할 기일을 이유 없이 넘겨 책임을 다하지 않는 일</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>15시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>做出</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>주출: 지을 주, 날 출</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>15시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>做出</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>주출: 지을 주, 날 출</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>15시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>做出</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>주출: 지을 주, 날 출</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>狷介</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>견개: 狷 성급할 견/介 낄(낱)개, 굳게 절개를 지키고 구차하게 타협하지 아니함</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>扶桑</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>부상: 해가 뜨는 동쪽 바다↔ 함지(咸池)</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>15시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>做出</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>주출: 지을 주, 날 출</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>15시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>경제 발전에 전력을 傾注하다</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>경주: 경주하다(傾注--): 힘이나 정신을 한곳에만 기울이다</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>15시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>그 아이의 귀는 매우 예민(銳悶)하다</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>銳悶</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>銳敏: 예민(銳敏): 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>15시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>廓正</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>확정</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>15시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>展望</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>전망</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>15시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>廓正</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>확정</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>15시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>주로 문서의 내용 따위를 고쳐 바르게 함</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>改定</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>改正: 개정: 고칠 개, 바를 정</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>15시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>일정한 목적, 내용, 체재에 맞추어 사상, 감정, 지식 따위를 글이나 그림으로 표현하여 적거나 인쇄하여 묶어 놓은 것</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>門籍</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>文籍: 문적: 글월 문, 문서 적</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>15시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>일정한 목적, 내용, 체재에 맞추어 사상, 감정, 지식 따위를 글이나 그림으로 표현하여 적거나 인쇄하여 묶어 놓은 것</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>門籍</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>文籍: 문적: 글월 문, 문서 적</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>做出</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>주출: 지을 주, 날 출</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>주로 문서의 내용 따위를 고쳐 바르게 함</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>改定</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>改正: 개정: 고칠 개, 바를 정</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>주로 문서의 내용 따위를 고쳐 바르게 함</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>改定</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>改正: 개정: 고칠 개, 바를 정</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>蔑視</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>멸시: 업신여길 멸, 볼 시, 업신여기거나 하찮게 여겨 깔봄</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>일정한 목적, 내용, 체재에 맞추어 사상, 감정, 지식 따위를 글이나 그림으로 표현하여 적거나 인쇄하여 묶어 놓은 것</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>門籍</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>文籍: 문적: 글월 문, 문서 적</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>蒙利者 : 덕 보는 사람. 수혜자 또는 이용자</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>동리자</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>몽리자: 어두울 몽, 이로울 리, 놈 자</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>隘路</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>애로: 좁을 애, 길 로</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>15시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>駘蕩</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>태랑: 駘 둔마(느리고 둔한 말, 편하다)태/蕩 방탕할 탕, 1. 넓고 큼 2. 봄날의 바람이나 날씨가 화창함</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>15시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>駘蕩</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>타랑</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>태랑: 駘 둔마(느리고 둔한 말, 편하다)태/蕩 방탕할 탕, 1. 넓고 큼 2. 봄날의 바람이나 날씨가 화창함</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>15시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>隘路</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>애로: 좁을 애, 길 로</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>15시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>駘蕩</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>태랑: 駘 둔마(느리고 둔한 말, 편하다)태/蕩 방탕할 탕, 1. 넓고 큼 2. 봄날의 바람이나 날씨가 화창함</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>15시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>隱秘：숨김 또는 몰래 감춤</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>은비: 隱秘(숨을 은, 숨길 비)숨겨 비밀로 함, 모르게 숨김</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>15시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>淵深</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>연심: 못 연, 깊을 심, 수준이 높거나 정도가 심하다</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>15시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>隱秘：숨김 또는 몰래 감춤</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>연심</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>은비: 隱秘(숨을 은, 숨길 비)숨겨 비밀로 함, 모르게 숨김</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>駘蕩</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>태랑: 駘 둔마(느리고 둔한 말, 편하다)태/蕩 방탕할 탕, 1. 넓고 큼 2. 봄날의 바람이나 날씨가 화창함</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>勸告</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>권고</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>15시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>15시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>15시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>前揭</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>전게: 앞 전, 걸 게</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>재회</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>15시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>사신(使臣)의 수석(首席). 상사(上使)</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>政事</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>正使: 정사, 正 바를 정/使 하여금(부릴)사</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>15시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>15시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>嘲笑</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>조소: 비웃을 조, 웃음 소, 비웃음</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>15시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>15시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>15시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>15시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>妥協的</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>타협적</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>15시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>15시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>15시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>15시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>15시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>辛酸</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>신산: 辛 매울 신/酸 실 산, 1. 맛이 맵고 심 2. 세상살이가 힘들고 고생스러움을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>15시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>享有</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>향유</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>15시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>享有</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>향유</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>15시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>享有</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>향유</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>15시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>15시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>享有</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>향유</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>15시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>廓正</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>확정</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>15시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>희신</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>15시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>蔑視</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>회신</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>멸시: 업신여길 멸, 볼 시, 업신여기거나 하찮게 여겨 깔봄</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>15시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>그 범인은 자신을 검사로 사칭(詐稱)하고 다녔다</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>私稱</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>詐稱: 사칭(詐稱): 이름, 직업, 나이, 주소 따위를 거짓으로 속여 이름</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>15시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>15시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>이 서류들을 잘 분류해서 編綴해 두어라</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>분철</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>편철: 편철(編綴): 통신, 문건, 신문 따위를 정리하여 짜서 철하거나 모으다</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>15시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>黨派的</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>묵과적</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>당파적</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>15시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>咸池</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>감지</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>함지: 해가 진다고 하는 서쪽의 큰 못↔ 부상(扶桑)</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>15시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>愁愁</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>수수: 근심 수, 근심 수</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>15시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>그 아이의 귀는 매우 예민(銳敏)하다</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>銳悶</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>銳敏: 예민(銳敏): 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>15시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>15시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>15시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>强調</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>강조</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>15시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>가상(假想)현실에서는 실제로 경험할 수 없는 체험을 할 수 있다</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>假像</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>假想: 假像 (X)假想 (O)</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>가상(假想)현실에서는 실제로 경험할 수 없는 체험을 할 수 있다</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>假像</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>假想: 假像 (X)假想 (O)</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>辛酸</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>신설</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>신산: 辛 매울 신/酸 실 산, 1. 맛이 맵고 심 2. 세상살이가 힘들고 고생스러움을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>鎖閑遣悶</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>쇄한견민: 쇄사슬 쇄, 한가할 한, 보낼 견, 번민할 민, 세상과 격리되어 한가히 앉아 답답한 속을 풂</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>15시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>15시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>溝渠：도랑 또는 개골창</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>구거: 溝渠(도랑 구, 개천 거)인공적인 수로 또는 그 부지. 하천보다 규모가 작은 4∼5m 폭의 개울을 뜻한다</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>15시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>扶桑</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>부상: 해가 뜨는 동쪽 바다↔ 함지(咸池)</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>15시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>扶桑</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>부상: 해가 뜨는 동쪽 바다↔ 함지(咸池)</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>15시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>눈동자가 기쁨으로 充溢하다</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>충일: 충일하다(充溢--): 가득 차서 넘치다</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>15시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>攷究</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>고구: 살필 고, 연구할 구, 자세히 살펴 연구함</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>15시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>貶下</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>폄하: 낮출 폄, 아래 하, 가치를 깎아내림</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>15시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>扶桑</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>부상: 해가 뜨는 동쪽 바다↔ 함지(咸池)</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>15시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>追放</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>추방: 追 쫓을 추, 放 놓을 방, 일정한 지역이나 조직 밖으로 쫓아냄</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>15시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>扶桑</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>부상: 해가 뜨는 동쪽 바다↔ 함지(咸池)</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>15시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>咸池</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>감지</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>함지: 해가 진다고 하는 서쪽의 큰 못↔ 부상(扶桑)</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>15시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>廓正</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>확정</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>15시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>일정한 목적, 내용, 체재에 맞추어 사상, 감정, 지식 따위를 글이나 그림으로 표현하여 적거나 인쇄하여 묶어 놓은 것</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>門籍</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>文籍: 문적: 글월 문, 문서 적</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>15시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>邁進</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>매진: 갈 매, 나아갈 진</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>15시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>淵深</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>연심: 못 연, 깊을 심, 수준이 높거나 정도가 심하다</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>15시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>남과 겨루어 이기기를 좋아하는 성미나 버릇</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>承癖</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>勝癖: 勝癖(승벽: 이길 승, 버릇 벽), 承癖(승벽: 이을 승, 버릇 벽)</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>15시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>淵深</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>승벽</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>연심: 못 연, 깊을 심, 수준이 높거나 정도가 심하다</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>15시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>膏肓</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>고황: 기름 고, 명치끝 황</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>15시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>相値</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>상치: 서로 상, 값 치, 두 가지 일이 공교롭게 마주침</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>15시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>遝至</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>답지: 뒤섞일 답, 이를 지</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>15시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>이번 사태는 특단(特段)의 대책 마련이 필요하다</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>特但</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>特段</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>15시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>鎖閑遣悶</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>쇄한견민: 쇄사슬 쇄, 한가할 한, 보낼 견, 번민할 민, 세상과 격리되어 한가히 앉아 답답한 속을 풂</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>15시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>遝至</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>답지: 뒤섞일 답, 이를 지</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>15시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>諷刺</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>풍자: 풍자할 풍, 찌를 자, 문학 작품 따위에서, 현실의 부정적 현상이나 모순 따위를 빗대어 비웃으면서 씀</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>15시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>狷介</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>견개: 狷 성급할 견/介 낄(낱)개, 굳게 절개를 지키고 구차하게 타협하지 아니함</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>15시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>鎖閑遣悶</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>쇄한견민: 쇄사슬 쇄, 한가할 한, 보낼 견, 번민할 민, 세상과 격리되어 한가히 앉아 답답한 속을 풂</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>15시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>遝至</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>답지: 뒤섞일 답, 이를 지</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>15시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>遝至</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>답지: 뒤섞일 답, 이를 지</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>15시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>상정(上程): 토의할 안건을 회의 석상에 내어놓음</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>詳定</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>上程</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>15시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>遝至</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>답지: 뒤섞일 답, 이를 지</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>결함: 이지러질 결, 빠질 함, 흠이 있어 완전하지 못함</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>遝至</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>답지: 뒤섞일 답, 이를 지</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>政略的</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>정략적</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>16시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>遝至</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>답지: 뒤섞일 답, 이를 지</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>16시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>妥協的</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>협력적</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>타협적</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>16시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>遝至</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>답사</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>답지: 뒤섞일 답, 이를 지</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>官員</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>관원: 벼슬아치</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>職責</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>질책</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>직책</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>16시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>대상ㆍ환경 따위에 따라 마음에 절로 생기며 한동안 지속되는, 유쾌함이나 불쾌함 따위의 감정</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>氣奔</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>氣分: 기분: 기운 기, 나눌 분</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>16시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>溝渠：도랑 또는 개골창</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>구거: 溝渠(도랑 구, 개천 거)인공적인 수로 또는 그 부지. 하천보다 규모가 작은 4∼5m 폭의 개울을 뜻한다</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>16시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>그 이야기는 과장(誇張) 없는 사실이다</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>誇長</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>誇張:誇長 (X)誇張 (O)</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>16시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>鎖閑遣悶</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>쇄한견문</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>쇄한견민: 쇄사슬 쇄, 한가할 한, 보낼 견, 번민할 민, 세상과 격리되어 한가히 앉아 답답한 속을 풂</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>蔑視</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>멸시: 업신여길 멸, 볼 시, 업신여기거나 하찮게 여겨 깔봄</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>駘蕩</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>태랑: 駘 둔마(느리고 둔한 말, 편하다)태/蕩 방탕할 탕, 1. 넓고 큼 2. 봄날의 바람이나 날씨가 화창함</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>廓正</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>확정</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>16시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>16시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>膏肓</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>고황: 기름 고, 명치끝 황</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>16시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>未嘗不(미상불): 아닌 게 아니라 과연</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>미상불</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>16시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>懈怠하다：게을리 하다</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>해태: 懈怠(게으를 해, 게으를 태)어떤 법률 행위를 해야할 기일을 이유 없이 넘겨 책임을 다하지 않는 일</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>16시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>처격ㄹ</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>16시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>使嗾</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>사방</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>사주: 하여금 사, 부추길 주, 남을 부추겨 좋지 않은 일을 시킴</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>16시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>몸을 움직이거나 가누는 모양</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>藉勢</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>姿勢: 자세: 모양 자, 형세 세</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>中傷</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>중상</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>卑下</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>폄하</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>비하: 낮을 비, 아래 하, 자기 자신을 낮춤</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>貶下</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>비하</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>폄하: 낮출 폄, 아래 하, 가치를 깎아내림</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>16시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>辛酸</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>신상</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>신산: 辛 매울 신/酸 실 산, 1. 맛이 맵고 심 2. 세상살이가 힘들고 고생스러움을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>16시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>喪失</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>상실: (잃을 상, 잃을 실): 어떤 것을 아주 잃거나 사라지게 하다</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>16시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>使嗾</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>사주: 하여금 사, 부추길 주, 남을 부추겨 좋지 않은 일을 시킴</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>16시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>使嗾</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr"/>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>사주: 하여금 사, 부추길 주, 남을 부추겨 좋지 않은 일을 시킴</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>16시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>경제 발전에 전력을 傾注하다</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>경주: 경주하다(傾注--): 힘이나 정신을 한곳에만 기울이다</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>16시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>遊戱</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>유희: 놀 유, 놀이 희, 즐겁게 놀며 장난함. 또는 그런 행위</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>16시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>경제 발전에 전력을 傾注하다</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>일주</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>경주: 경주하다(傾注--): 힘이나 정신을 한곳에만 기울이다</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>17시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>使嗾</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>사주: 하여금 사, 부추길 주, 남을 부추겨 좋지 않은 일을 시킴</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>17시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>隘路</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>애로: 좁을 애, 길 로</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>膏肓</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>고망</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>고황: 기름 고, 명치끝 황</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>弔戰場文</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>조전장문: 조상할 조, 싸움 전, 마당 장, 글월 문</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>喪失</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>확실</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>상실: (잃을 상, 잃을 실): 어떤 것을 아주 잃거나 사라지게 하다</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>司正</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>확정</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>사정: 맡을 사, 바를 정, 그릇된 일을 다스려 바로잡음</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>區分</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>구분: 일정한 기준에 따라 전체를 몇 개로 갈라 나눔</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>使嗾</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>사정</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>사주: 하여금 사, 부추길 주, 남을 부추겨 좋지 않은 일을 시킴</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>弔戰場文</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>조전장문: 조상할 조, 싸움 전, 마당 장, 글월 문</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>遊戱</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>유희: 놀 유, 놀이 희, 즐겁게 놀며 장난함. 또는 그런 행위</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>使嗾</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>사주: 하여금 사, 부추길 주, 남을 부추겨 좋지 않은 일을 시킴</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>17시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>주로 문서의 내용 따위를 고쳐 바르게 함</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>改定</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>改正: 개정: 고칠 개, 바를 정</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>17시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>그 이야기는 과장(誇張) 없는 사실이다</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>誇長</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>誇張:誇長 (X)誇張 (O)</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>17시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>나타나 보이는 현재의 상태</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>現象</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>現狀: 현상: 나타날 현, 형상 상</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>17시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>享有</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>고유</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>향유</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>17시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>이미 정하였던 것을 고쳐서 다시 정함</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>改正</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>改定: 개정: 고칠 개, 정할 정</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>17시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>17시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>사물이 어떠한 기준에 의하여 분간되는 한계</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>經界</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>境界: 경계: 지경 경, 지경 계</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>17시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>17시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>경계</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>灌注</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>전주</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>관주: 물댈 괄, 부을 주, 물이 흘러 들어감</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>膏肓</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>활유</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>고황: 기름 고, 명치끝 황</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>17시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>17시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>17시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>17시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>追放</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>추방: 追 쫓을 추, 放 놓을 방, 일정한 지역이나 조직 밖으로 쫓아냄</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>17시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>享有</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>활유</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>향유</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>17시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>邁進</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>매진: 갈 매, 나아갈 진</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>17시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>遊戱</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>유희: 놀 유, 놀이 희, 즐겁게 놀며 장난함. 또는 그런 행위</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>懈怠하다：게을리 하다</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>해태: 懈怠(게으를 해, 게으를 태)어떤 법률 행위를 해야할 기일을 이유 없이 넘겨 책임을 다하지 않는 일</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>强調</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>강주</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>강조</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>18시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>가시(可視)적인 성과보다는 내실이 중요하다</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>可示</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>可視: 可示 (X)可視 (O)</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>18시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>餘地</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>여지: 어떤 일을 하거나 어떤 일이 일어날 가능성이나 희망</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>18시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>爛漫</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>난만: 爛 빛날(문드러질)난/漫 흩어질 만, 1. 꽃이 활짝 많이 피어 화려함 2. 광채가 강하고 선명함</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>18시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>18시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>爛漫</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>난만: 爛 빛날(문드러질)난/漫 흩어질 만, 1. 꽃이 활짝 많이 피어 화려함 2. 광채가 강하고 선명함</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>餘地</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>여지: 어떤 일을 하거나 어떤 일이 일어날 가능성이나 희망</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>遊戱</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>기호</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>유희: 놀 유, 놀이 희, 즐겁게 놀며 장난함. 또는 그런 행위</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>蔑視</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>멸시: 업신여길 멸, 볼 시, 업신여기거나 하찮게 여겨 깔봄</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>섣부른 豫斷은 금물이다</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>예단: 미리 판단함. 또는 그 판단</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>가시(可視)적인 성과보다는 내실이 중요하다</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>可示</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>可視: 可示 (X)可視 (O)</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>사정</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>결함: 이지러질 결, 빠질 함, 흠이 있어 완전하지 못함</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>餘地</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>여지: 어떤 일을 하거나 어떤 일이 일어날 가능성이나 희망</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>爛漫</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr"/>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>난만: 爛 빛날(문드러질)난/漫 흩어질 만, 1. 꽃이 활짝 많이 피어 화려함 2. 광채가 강하고 선명함</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>蹂躪</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr"/>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>유린: 蹂밟을 유, 躪짓밟을 린, 남의 권리나 인격을 짓밟음</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr"/>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>爛漫</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr"/>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>난만: 爛 빛날(문드러질)난/漫 흩어질 만, 1. 꽃이 활짝 많이 피어 화려함 2. 광채가 강하고 선명함</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>蹂躪</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>질곡</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>유린: 蹂밟을 유, 躪짓밟을 린, 남의 권리나 인격을 짓밟음</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>弔戰場文</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>조전장문: 조상할 조, 싸움 전, 마당 장, 글월 문</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>옳고 그른 경위가 분간되는 한계</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>境界</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>經界: 경계: 지날 경, 지경 계</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>狷介</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr"/>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>견개: 狷 성급할 견/介 낄(낱)개, 굳게 절개를 지키고 구차하게 타협하지 아니함</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>使嗾</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr"/>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>사주: 하여금 사, 부추길 주, 남을 부추겨 좋지 않은 일을 시킴</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>喪失</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>상실: (잃을 상, 잃을 실): 어떤 것을 아주 잃거나 사라지게 하다</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>享有</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>활유</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>향유</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr"/>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>결함</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr"/>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>追放</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr"/>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>추방: 追 쫓을 추, 放 놓을 방, 일정한 지역이나 조직 밖으로 쫓아냄</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>멸시</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr"/>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>膏肓</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr"/>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>고황: 기름 고, 명치끝 황</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr"/>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>强調</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>강풍</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>강조</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>淵深</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>연심: 못 연, 깊을 심, 수준이 높거나 정도가 심하다</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>淵深</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>심</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>연심: 못 연, 깊을 심, 수준이 높거나 정도가 심하다</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>체계(體系) : 일정한 원리에 따라서 낱낱의 부분이 짜임새 있게 조직되어 통일된 전체</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>體制</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>體系</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>正直</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>정직: (바를 정, 곧을 직), 마음에 거짓이나 꾸밈이 없이 바르고 곧음</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>함몰</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>훼손: 헐 훼/덜 손</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>鎖閑遣悶</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>쇄한견민: 쇄사슬 쇄, 한가할 한, 보낼 견, 번민할 민, 세상과 격리되어 한가히 앉아 답답한 속을 풂</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>오늘 우리의 이번 거사는 정의, 인도와 생존과 영광을 갈망하는 민족 전체의 요구이니, 오직 자유의 정신을 ㉠發揮할 것이요, 결코 ㉡배타적인 감정으로 정도에서 벗어난 잘못을 저지르지 마라</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>撥揮</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>發揮: 발휘, 發 필 발/揮 휘두를 휘, 재능, 능력 따위를 떨치어 나타냄</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>塵世</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr"/>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>진세: (塵世, 티끌 진, 인간 세), 불교 용어로 ‘티끌과도 같은 세상’을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>13시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>13시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>資料</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>자료: 資 재물 자/ 料 헤아릴 료, 연구나 조사 따위의 바탕이 되는 재료</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>13시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>氣勝</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>기승: 성미가 억척스러워서 굽히지 않는 이상한 버릇</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>13시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>마루 앞에 임시로 잇대어 베푼 자리에 쓰는 널</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr"/>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>補板: 보판, 기울 보/널빤지 판</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>13시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>일제 강점기 저항문학 작품의 수가 적고 저항의 ㉠강도가 그리 높지 않은 것은 일제의 사상 ㉡통제에 원인이 있다.</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>強度</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>13시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>資質</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>보급</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>자질</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>13시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>斷定</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>결정</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>단정: 斷 끊을 단/ 定 정할 정, 딱 잘라서 판단하고 결정함</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>13시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>發覺</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>발견</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>발각: 發 필 발/ 覺 깨달을 각, 숨기던 것이 드러남</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>13시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>闡發</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>천발: 밝힐 천, 필 발, 드러내어 밝힘</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>13시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>과거의 잘못된 관행을 답습(踏襲)하는 것은 옳지 않다</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>踏習</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>踏襲:답습(踏襲): 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>13시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>闡發</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>천발: 밝힐 천, 필 발, 드러내어 밝힘</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>13시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>做出</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>주출: 지을 주, 날 출</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>13시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>分離</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>분란</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>분리: 서로 나뉘어 떨어지거나 떨어지게함</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>13시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>分離</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>분란</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>분리: 서로 나뉘어 떨어지거나 떨어지게함</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>13시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>攷究</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>고구: 살필 고, 연구할 구, 자세히 살펴 연구함</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>13시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>技術</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr"/>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>기술: 재주 기, 재주 술, 만들거나 짓거나 하는 재주 또는 솜씨</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>13시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>忖度</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>촌탁: 헤아릴 촌, 헤아릴 탁</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>曲盡</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>곡절</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>곡진: 곡진하다, 1. 매우 정성스럽다. 2. 매우 자세하고 간곡하다</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>가상(假想)현실에서는 실제로 경험할 수 없는 체험을 할 수 있다</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>假像</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>假想: 假像 (X)假想 (O)</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>13시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>서사: 사실을 있는 그대로 적음</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>徐事</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>16시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr"/>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>16시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>俗臭</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>속취: 풍속 속, 냄새 취, 1. 세속의 더러운 냄새 2. 돈이나 헛된 명예에 집착하는 천한 기풍</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>16시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>16시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>箴言</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>잠언: 경계 잠, 말씀 언</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>20230331</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>16시 47분</t>
         </is>
       </c>
     </row>
